--- a/branches/program-monitoring-changes/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/branches/program-monitoring-changes/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5252,7 +5252,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>312</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
